--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayian\prediksisuhu\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5687C4FB-38F8-4EAB-914C-4F034C137E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD79380-80A4-43EA-AB19-407B1A6F9370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nh</t>
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>40%.</t>
+  </si>
+  <si>
+    <t>20–30%.</t>
+  </si>
+  <si>
+    <t>50%.</t>
+  </si>
+  <si>
+    <t>10%  or less, but not 0</t>
+  </si>
+  <si>
+    <t>no clouds</t>
+  </si>
+  <si>
+    <t>60%.</t>
+  </si>
+  <si>
+    <t>70 – 80%.</t>
+  </si>
+  <si>
+    <t>90  or more, but not 100%</t>
+  </si>
+  <si>
+    <t>100%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,9 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,16 +385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.6328125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -366,75 +405,115 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>89</v>
-      </c>
-      <c r="B4" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>100</v>
-      </c>
-      <c r="B5" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B11" s="1">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>70.75</v>
+      </c>
+      <c r="B14" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1">
-        <v>25</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
